--- a/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>IMRA</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,60 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -742,8 +746,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +778,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +810,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +826,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E12" s="3">
         <v>5800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +920,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +965,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E17" s="3">
         <v>7400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1007,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-24100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1043,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,28 +1053,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1048,17 +1085,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-23400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1068,8 +1105,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,37 +1137,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1201,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1425,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,57 +1437,63 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,23 +1620,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E41" s="3">
         <v>86700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,20 +1650,23 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E42" s="3">
         <v>19100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>24000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,8 +1682,11 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1714,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,23 +1746,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,23 +1778,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E46" s="3">
         <v>109800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>45700</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,8 +1810,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1842,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1749,11 +1857,11 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,8 +1874,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1906,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,23 +1970,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +2002,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,23 +2034,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E54" s="3">
         <v>110300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2066,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,22 +2096,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1700</v>
       </c>
       <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>1700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1995,8 +2126,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,23 +2158,26 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,23 +2190,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,8 +2222,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2254,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2123,10 +2269,10 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2140,8 +2286,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,23 +2382,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2414,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2336,13 +2504,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>77800</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>77800</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>77800</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,23 +2556,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-62000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-54800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-40900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2588,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,23 +2684,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E76" s="3">
         <v>105200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-48800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-35600</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2716,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2646,14 +2845,14 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2664,8 +2863,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2860,13 +3081,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2880,8 +3101,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3165,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E94" s="3">
         <v>4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3339,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E100" s="3">
         <v>86600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>43600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>45600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>43900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3403,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E102" s="3">
         <v>81800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>37900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>41500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>IMRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,64 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -749,8 +753,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,8 +788,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +823,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,40 +840,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E12" s="3">
         <v>7900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +908,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,8 +943,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,8 +978,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,40 +992,44 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E17" s="3">
         <v>10300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1007,31 +1037,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1077,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1056,28 +1090,31 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1085,20 +1122,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1108,8 +1145,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1140,40 +1180,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1204,8 +1250,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1285,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1390,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1425,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1460,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,8 +1495,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1440,60 +1510,66 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1600,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1692,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,26 +1707,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E41" s="3">
         <v>54700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>86700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1653,23 +1740,26 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E42" s="3">
         <v>51600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>19100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>24000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1685,8 +1775,11 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1717,8 +1810,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1749,26 +1845,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>4300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1781,26 +1880,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E46" s="3">
         <v>110600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>109800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>45700</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,8 +1915,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1845,8 +1950,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1860,11 +1968,11 @@
         <v>400</v>
       </c>
       <c r="G48" s="3">
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1985,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1909,8 +2020,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2055,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,26 +2090,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2005,8 +2125,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,26 +2160,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100200</v>
+      </c>
+      <c r="E54" s="3">
         <v>111300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>110300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2069,8 +2195,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2212,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,25 +2227,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1700</v>
       </c>
       <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>1700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2129,8 +2260,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2161,26 +2295,29 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,26 +2330,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2225,8 +2365,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2257,8 +2400,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2272,10 +2418,10 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2289,8 +2435,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2470,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2505,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,26 +2540,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2417,8 +2575,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2592,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2625,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2660,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2507,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>77800</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>77800</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>77800</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2527,8 +2695,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,26 +2730,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-72200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-62000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-54800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-40900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,8 +2765,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2800,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2835,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,26 +2870,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E76" s="3">
         <v>106300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>105200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-48800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-35600</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2719,8 +2905,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2940,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,8 +3032,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2848,14 +3047,14 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2866,8 +3065,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3100,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3135,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3170,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3205,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3240,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3292,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3084,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>-100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3104,8 +3325,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3360,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,40 +3395,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3447,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3480,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3515,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3550,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,40 +3585,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>9600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>86600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>43600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>45600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>43900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3406,36 +3655,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>81800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>37900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>41500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>IMRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,67 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -756,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -791,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>9500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,43 +1018,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E17" s="3">
         <v>12500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1037,34 +1066,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-24100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1093,28 +1126,31 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1122,23 +1158,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-23400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1183,43 +1222,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1253,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1513,63 +1582,69 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,29 +1793,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E41" s="3">
         <v>34200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>54700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>86700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1743,26 +1829,29 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E42" s="3">
         <v>61900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>51600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>24000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,8 +1867,11 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1813,8 +1905,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1848,29 +1943,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1883,29 +1981,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E46" s="3">
         <v>99700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>110600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>109800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>30600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>45700</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1918,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1953,13 +2057,16 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -1971,11 +2078,11 @@
         <v>400</v>
       </c>
       <c r="H48" s="3">
+        <v>400</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1988,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2023,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2102,20 +2221,20 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,29 +2285,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>90800</v>
+      </c>
+      <c r="E54" s="3">
         <v>100200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>111300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>110300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2198,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,28 +2357,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1700</v>
       </c>
       <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>1700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2263,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2298,29 +2431,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,29 +2469,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2403,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2421,10 +2566,10 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2438,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,29 +2697,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2678,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>77800</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>77800</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>77800</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2698,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,29 +2903,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-72200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-54800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-40900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2768,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,29 +3055,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E76" s="3">
         <v>94700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>106300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>105200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-48800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-35600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2908,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3050,14 +3248,14 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3068,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-21900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3308,13 +3528,13 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3328,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>86600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>43600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>45600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>43900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3658,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-20500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-32100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>81800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>37900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>41500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>IMRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -762,8 +766,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E12" s="3">
         <v>9000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,46 +1045,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E17" s="3">
         <v>11600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,37 +1096,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-24100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1129,28 +1163,31 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,26 +1195,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-23400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,46 +1265,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -1585,66 +1655,72 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,32 +1880,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E41" s="3">
         <v>47700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>54700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>86700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,29 +1919,32 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E42" s="3">
         <v>40500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>61900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>51600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>19100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>24000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,32 +2042,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,32 +2083,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>80400</v>
+      </c>
+      <c r="E46" s="3">
         <v>90400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>99700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>110600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>109800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>45700</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,16 +2165,19 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -2081,11 +2189,11 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
+        <v>400</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,32 +2329,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,32 +2411,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E54" s="3">
         <v>90800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>100200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>111300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>110300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>45900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,31 +2488,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1700</v>
       </c>
       <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>1700</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,32 +2568,35 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,32 +2609,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>6200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2650,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,13 +2691,16 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -2569,10 +2715,10 @@
         <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,32 +2855,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2848,13 +3016,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>77800</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>77800</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>77800</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,32 +3077,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-106400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-96100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-84600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-72200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-54800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-40900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,32 +3241,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E76" s="3">
         <v>84400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>94700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>106300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>105200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-48800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-35600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3251,14 +3450,14 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-21900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3531,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>-100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E94" s="3">
         <v>21200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-32400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>86600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>43600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>45600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>43900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E102" s="3">
         <v>13500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-20500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-32100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>81800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>37900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>41500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>IMRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,75 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,8 +773,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +817,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +861,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +881,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E12" s="3">
         <v>7100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1011,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,49 +1072,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E17" s="3">
         <v>10300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1126,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1178,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1157,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1166,28 +1200,31 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,29 +1232,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-23400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-4200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,8 +1264,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,49 +1308,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1396,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1704,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1649,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -1658,69 +1728,75 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,35 +1967,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E41" s="3">
         <v>53400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>54700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>86700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>45200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,32 +2009,35 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E42" s="3">
         <v>22200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>40500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>61900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>51600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>19100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>24000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,8 +2053,11 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2097,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,35 +2141,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,35 +2185,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E46" s="3">
         <v>80400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>90400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>99700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>110600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>109800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>45700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2229,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,19 +2273,22 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
@@ -2192,11 +2300,11 @@
         <v>400</v>
       </c>
       <c r="J48" s="3">
+        <v>400</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,8 +2317,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,35 +2449,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2493,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,35 +2537,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E54" s="3">
         <v>81700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>90800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>111300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>110300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>45900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2581,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,34 +2619,35 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1700</v>
       </c>
       <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>1700</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2530,8 +2661,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,35 +2705,38 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,35 +2749,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,8 +2793,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,16 +2837,19 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -2718,10 +2864,10 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,35 +3013,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3019,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>77800</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>77800</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>77800</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,35 +3251,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-119500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-106400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-96100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-84600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-62000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-54800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-40900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3295,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,35 +3427,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E76" s="3">
         <v>75600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>84400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>94700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>106300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>105200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-48800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-35600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3471,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3453,14 +3652,14 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3471,8 +3670,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-21900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3954,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3755,13 +3976,13 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>-100</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4084,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E94" s="3">
         <v>18300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>21200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-32400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4322,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>86600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>43600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>45600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>43900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4410,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E102" s="3">
         <v>5700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-20500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-32100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>81800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>37900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>41500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>IMRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,79 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,8 +780,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,8 +827,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +874,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,52 +895,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E12" s="3">
         <v>10100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +987,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1034,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,52 +1099,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E17" s="3">
         <v>13200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,43 +1156,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-24100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1212,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1194,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1203,28 +1237,31 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,32 +1269,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-23400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-4200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1267,8 +1304,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,52 +1351,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1445,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1774,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1731,72 +1801,78 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,38 +2054,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E41" s="3">
         <v>48000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>86700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>45200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2012,35 +2099,38 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E42" s="3">
         <v>18700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>22200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>40500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>61900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>51600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>24000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,8 +2146,11 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2100,8 +2193,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,38 +2240,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
         <v>4600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,38 +2287,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E46" s="3">
         <v>71400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>80400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>90400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>99700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>110600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>109800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>45700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,8 +2334,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,8 +2381,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2285,13 +2393,13 @@
         <v>900</v>
       </c>
       <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -2303,11 +2411,11 @@
         <v>400</v>
       </c>
       <c r="K48" s="3">
+        <v>400</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,8 +2428,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2569,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2461,29 +2581,29 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2496,8 +2616,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,38 +2663,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E54" s="3">
         <v>72500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>81700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>90800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>111300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>110300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2710,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,37 +2750,38 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1700</v>
       </c>
       <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>1700</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2664,8 +2795,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2708,38 +2842,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,38 +2889,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E60" s="3">
         <v>7000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2936,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +2983,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2849,10 +2995,10 @@
         <v>500</v>
       </c>
       <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -2867,10 +3013,10 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -2884,8 +3030,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,38 +3171,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +3218,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3190,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>77800</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>77800</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>77800</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,38 +3425,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-133200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-119500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-106400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-96100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-84600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-72200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-62000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-54800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3298,8 +3472,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,38 +3613,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E76" s="3">
         <v>65000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>75600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>84400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>94700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>106300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>105200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-48800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-35600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3660,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3827,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3655,14 +3854,14 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3673,8 +3872,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4107,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-21900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4175,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3979,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>-100</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3999,8 +4220,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4314,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E94" s="3">
         <v>3400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>18300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>21200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-32400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,52 +4568,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>86600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>43600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>45600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>43900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4662,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-20500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-32100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>81800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>37900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>41500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>IMRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,86 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,8 +790,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,8 +843,14 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,8 +896,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,55 +921,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F12" s="3">
         <v>10400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>10100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>7100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>9000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>9500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>19000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,8 +1076,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1084,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,55 +1151,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F17" s="3">
         <v>13700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>11600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>12500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>24100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1156,46 +1215,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-13200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-10300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-11600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-12500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-10300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-24100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-9800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-10700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,8 +1278,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1231,37 +1298,43 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1269,46 +1342,52 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-13100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-10200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-11500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-12400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-10200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-7200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-23400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-4200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,55 +1433,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-13600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-13200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-10300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-11500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-12400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-10200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-23500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-9600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1448,8 +1539,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-13600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-13200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-10300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-11500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-12400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-10200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-23500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-9600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-11300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-13600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-13200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-10300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-11500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-12400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-15100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-23500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-9600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-11300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,8 +1910,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1795,84 +1934,96 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-13600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-13200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-10300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-11500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-12400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-15100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-23500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-9600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-11300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-13600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-13200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-10300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-11500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-12400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-15100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-23500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-9600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-11300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,44 +2226,46 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F41" s="3">
         <v>75300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>48000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>53400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>47700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>34200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>54700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>86700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>45200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2102,41 +2275,47 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F42" s="3">
         <v>27500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>18700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>22200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>40500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>61900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>51600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>19100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>24000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2149,8 +2328,14 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2196,8 +2381,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2243,44 +2434,50 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,44 +2487,50 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>92700</v>
+      </c>
+      <c r="F46" s="3">
         <v>106000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>71400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>80400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>90400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>99700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>110600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>109800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>30600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>45700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2337,8 +2540,14 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2384,28 +2593,34 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -2414,14 +2629,14 @@
         <v>400</v>
       </c>
       <c r="L48" s="3">
+        <v>400</v>
+      </c>
+      <c r="M48" s="3">
+        <v>400</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,8 +2646,14 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2478,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,8 +2805,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2584,31 +2823,31 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N52" s="3">
+        <v>100</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2858,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,44 +2911,50 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>93600</v>
+      </c>
+      <c r="F54" s="3">
         <v>107000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>72500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>81700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>90800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>100200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>111300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>110300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>33300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>45900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2713,8 +2964,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,43 +3010,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2300</v>
       </c>
       <c r="K57" s="3">
         <v>1700</v>
       </c>
       <c r="L57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>1700</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -2798,8 +3059,14 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2845,44 +3112,50 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
         <v>4700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2500</v>
       </c>
       <c r="G59" s="3">
         <v>4300</v>
       </c>
       <c r="H59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2892,8 +3165,14 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2901,35 +3180,35 @@
         <v>7200</v>
       </c>
       <c r="E60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G60" s="3">
         <v>7000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2939,8 +3218,14 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2986,25 +3271,31 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -3016,13 +3307,13 @@
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>200</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3033,8 +3324,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,44 +3483,50 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F66" s="3">
         <v>7700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3536,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3361,17 +3696,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>77800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>77800</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3381,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,44 +3769,50 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-162100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-147500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-133200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-119500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-106400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-96100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-84600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-72200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-62000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-54800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-40900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3822,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,44 +3981,50 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>86000</v>
+      </c>
+      <c r="F76" s="3">
         <v>99400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>65000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>75600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>84400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>94700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>106300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>105200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-48800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-35600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +4034,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-13600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-13200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-10300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-11500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-12400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-15100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-23500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-9600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-11300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3857,8 +4254,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3866,8 +4263,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -3875,8 +4272,14 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-10900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-10400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-13000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-8300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-10300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-9300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-21900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-7600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-8800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,13 +4615,15 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4203,17 +4644,17 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4223,8 +4664,14 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-8800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>3400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>18300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>21200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-10300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-32400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-24100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,55 +5056,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>47000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>9600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>86600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>43600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>45600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>43900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>6500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4665,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F102" s="3">
         <v>27300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>5700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>13500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-20500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-32100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>81800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>37900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>41500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-4200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>IMRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -796,8 +800,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +856,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +936,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E12" s="3">
         <v>11200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,61 +1179,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E17" s="3">
         <v>14700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,52 +1245,55 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-24100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1304,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1313,28 +1347,31 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,41 +1379,41 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-23400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-4200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1386,8 +1423,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,61 +1479,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1940,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1949,81 +2019,87 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,47 +2314,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E41" s="3">
         <v>36500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>75300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>53400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>86700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>45200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,44 +2368,47 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E42" s="3">
         <v>36400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>42000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>27500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>22200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>40500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>61900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>51600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>24000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2424,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2480,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,47 +2536,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,47 +2592,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E46" s="3">
         <v>78500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>92700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>106000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>71400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>80400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>90400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>99700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>110600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>109800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>45700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,8 +2648,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,31 +2704,34 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>900</v>
       </c>
       <c r="G48" s="3">
         <v>900</v>
       </c>
       <c r="H48" s="3">
+        <v>900</v>
+      </c>
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -2635,11 +2743,11 @@
         <v>400</v>
       </c>
       <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2760,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2829,29 +2949,29 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,47 +3040,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E54" s="3">
         <v>81600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>107000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>72500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>81700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>90800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>111300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>110300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3096,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,46 +3142,47 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1700</v>
       </c>
       <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>1700</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3196,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,47 +3252,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,13 +3308,16 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7200</v>
+        <v>3300</v>
       </c>
       <c r="E60" s="3">
         <v>7200</v>
@@ -3186,32 +3326,32 @@
         <v>7200</v>
       </c>
       <c r="G60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3364,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,28 +3420,31 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>500</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
       </c>
       <c r="H62" s="3">
+        <v>500</v>
+      </c>
+      <c r="I62" s="3">
         <v>600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -3313,10 +3459,10 @@
         <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,47 +3644,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
         <v>9200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3700,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3702,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>77800</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>77800</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>77800</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,47 +3946,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-173600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-162100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-147500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-133200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-119500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-106400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-96100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-84600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-72200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-62000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-40900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4002,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,47 +4170,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E76" s="3">
         <v>72400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>86000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>99400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>65000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>75600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>84400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>94700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>106300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>105200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-48800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-35600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4226,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,13 +4423,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4260,14 +4459,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-21900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,17 +4837,18 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4650,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>-100</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E94" s="3">
         <v>5300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>18300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>21200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5305,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5074,49 +5320,52 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>47000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>86600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>43600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>45600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>43900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-20500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-32100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>81800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>37900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>41500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>IMRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -803,8 +807,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,8 +866,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,8 +925,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,64 +950,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>7400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4100</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1066,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1125,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,64 +1206,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="3">
         <v>11500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,55 +1275,58 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-24100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1347,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1323,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1341,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1350,28 +1384,31 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1379,44 +1416,44 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-23400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1426,8 +1463,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,64 +1522,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5400</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,8 +1640,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5400</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5400</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2053,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1995,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2013,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -2022,84 +2092,90 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5400</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5400</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,50 +2401,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E41" s="3">
         <v>30400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>75300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>53400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>47700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>86700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>45200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,47 +2458,50 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E42" s="3">
         <v>29900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>36400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>42000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>27500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>22200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>40500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>61900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>51600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>24000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2517,11 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2483,8 +2576,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2539,50 +2635,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2595,50 +2694,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E46" s="3">
         <v>64300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>78500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>92700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>106000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>71400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>80400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>90400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>99700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>110600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>109800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>45700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2753,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,34 +2812,37 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>900</v>
       </c>
       <c r="H48" s="3">
         <v>900</v>
       </c>
       <c r="I48" s="3">
+        <v>900</v>
+      </c>
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
@@ -2746,11 +2854,11 @@
         <v>400</v>
       </c>
       <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,8 +2871,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +2930,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,13 +3048,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -2952,29 +3072,29 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
       <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2987,8 +3107,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,50 +3166,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E54" s="3">
         <v>64700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>81600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>93600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>107000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>72500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>81700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>90800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>111300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>110300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3099,8 +3225,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,49 +3273,50 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1700</v>
       </c>
       <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>1700</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -3199,8 +3330,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3255,50 +3389,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3311,16 +3448,19 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>7200</v>
       </c>
       <c r="F60" s="3">
         <v>7200</v>
@@ -3329,32 +3469,32 @@
         <v>7200</v>
       </c>
       <c r="H60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3367,8 +3507,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3423,8 +3566,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3432,22 +3578,22 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
       </c>
       <c r="I62" s="3">
+        <v>500</v>
+      </c>
+      <c r="J62" s="3">
         <v>600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -3462,10 +3608,10 @@
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3479,8 +3625,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,50 +3802,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3703,8 +3861,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3873,13 +4041,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>77800</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>77800</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>77800</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,50 +4120,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-178200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-173600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-162100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-147500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-133200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-119500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-106400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-96100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-84600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-72200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-62000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-54800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-40900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4005,8 +4179,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,50 +4356,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E76" s="3">
         <v>61400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>72400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>86000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>99400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>65000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>75600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>84400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>94700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>106300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>105200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-48800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-35600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4229,8 +4415,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5400</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,17 +4622,18 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -4462,14 +4661,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4480,8 +4679,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-21900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,20 +5058,21 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4874,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>-100</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4894,8 +5115,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E94" s="3">
         <v>6300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>18300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>21200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,8 +5551,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5323,49 +5569,52 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>47000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>86600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>43600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>45600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>43900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5669,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-27000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-32100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>81800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>37900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>41500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
